--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -424,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -436,6 +445,7 @@
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,205 +467,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -677,1085 +720,1250 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -1951,7 +1951,7 @@
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>76</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto di naturalizzazione straniero</t>
+  </si>
+  <si>
+    <t>Documentazione attestante la residenza in Italia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto di naturalizzazione straniero</t>
-  </si>
-  <si>
-    <t>Documentazione attestante la residenza in Italia</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -721,1249 +724,1249 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -284,7 +284,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -448,7 +448,7 @@
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -251,6 +251,24 @@
     <t>dataInizioResidenza</t>
   </si>
   <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Dati Generali</t>
   </si>
   <si>
@@ -330,24 +348,6 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1304,19 +1304,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1327,19 +1327,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1350,19 +1350,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1373,577 +1373,577 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
@@ -1951,21 +1951,90 @@
         <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1080,7 +1086,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>36</v>
@@ -1172,7 +1178,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
@@ -1204,7 +1210,7 @@
         <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>27</v>
@@ -1227,7 +1233,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -1250,7 +1256,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1287,16 +1293,16 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>27</v>
@@ -1307,13 +1313,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>80</v>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>88</v>
@@ -1405,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1419,19 +1425,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1442,283 +1448,283 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>105</v>
@@ -1727,21 +1733,21 @@
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>106</v>
@@ -1750,67 +1756,67 @@
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -1819,21 +1825,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>110</v>
@@ -1842,21 +1848,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>111</v>
@@ -1865,148 +1871,148 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2017,24 +2023,70 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -308,7 +308,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -454,7 +457,7 @@
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1980,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
@@ -2000,19 +2003,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2026,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -2046,10 +2049,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
@@ -2058,7 +2061,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,10 +2072,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2081,7 +2084,7 @@
         <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -1983,7 +1980,7 @@
         <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
@@ -2003,19 +2000,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2023,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -2049,10 +2046,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
@@ -2061,7 +2058,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2072,10 +2069,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2084,7 +2081,7 @@
         <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -1980,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
@@ -2000,19 +2003,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2026,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -2046,10 +2049,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
@@ -2058,7 +2061,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,10 +2072,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2081,7 +2084,7 @@
         <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -246,6 +246,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Data inizio residenza</t>
@@ -445,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1319,13 +1343,13 @@
         <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1339,16 +1363,16 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1362,16 +1386,16 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1385,16 +1409,16 @@
         <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1405,19 +1429,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1428,19 +1452,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1451,19 +1475,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1474,25 +1498,25 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -1500,22 +1524,22 @@
         <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -1523,573 +1547,665 @@
         <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -140,6 +140,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -353,10 +359,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -469,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -929,7 +932,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>36</v>
@@ -1021,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>36</v>
@@ -1053,7 +1056,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>27</v>
@@ -1076,7 +1079,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>27</v>
@@ -1099,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -1122,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
@@ -1136,7 +1139,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>36</v>
@@ -1228,7 +1231,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>36</v>
@@ -1260,7 +1263,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -1283,7 +1286,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1306,7 +1309,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -1352,7 +1355,7 @@
         <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>27</v>
@@ -1435,13 +1438,13 @@
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1455,13 +1458,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>90</v>
@@ -1521,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>98</v>
@@ -1553,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>99</v>
@@ -1567,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,191 +1593,191 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
@@ -1783,21 +1786,21 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>112</v>
@@ -1806,378 +1809,378 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,24 +2191,70 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1208,7 +1214,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
@@ -1231,7 +1237,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>36</v>
@@ -1286,7 +1292,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1309,7 +1315,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -1332,7 +1338,7 @@
         <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>27</v>
@@ -1378,7 +1384,7 @@
         <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>27</v>
@@ -1461,13 +1467,13 @@
         <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1481,13 +1487,13 @@
         <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>92</v>
@@ -1547,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>100</v>
@@ -1579,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>101</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,375 +1622,375 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>118</v>
@@ -1993,21 +1999,21 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>119</v>
@@ -2016,21 +2022,21 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>120</v>
@@ -2039,21 +2045,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>121</v>
@@ -2062,21 +2068,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>122</v>
@@ -2085,148 +2091,148 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,24 +2243,70 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1970,7 +1976,7 @@
         <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -1979,7 +1985,7 @@
         <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>109</v>
@@ -1993,7 +1999,7 @@
         <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2002,10 +2008,10 @@
         <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>110</v>
@@ -2016,7 +2022,7 @@
         <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2025,10 +2031,10 @@
         <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>110</v>
@@ -2039,7 +2045,7 @@
         <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2048,10 +2054,10 @@
         <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>110</v>
@@ -2062,7 +2068,7 @@
         <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2071,10 +2077,10 @@
         <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>110</v>
@@ -2085,7 +2091,7 @@
         <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2094,10 +2100,10 @@
         <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>110</v>
@@ -2108,7 +2114,7 @@
         <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2117,10 +2123,10 @@
         <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>110</v>
@@ -2131,7 +2137,7 @@
         <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2140,7 +2146,7 @@
         <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>109</v>
@@ -2154,19 +2160,19 @@
         <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>110</v>
@@ -2177,7 +2183,7 @@
         <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
@@ -2186,7 +2192,7 @@
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2200,7 +2206,7 @@
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
@@ -2209,7 +2215,7 @@
         <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>127</v>
@@ -2229,36 +2235,36 @@
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2266,22 +2272,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>27</v>
@@ -2289,16 +2295,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>135</v>
@@ -2307,6 +2313,29 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,6 +324,81 @@
   </si>
   <si>
     <t>datiProdotti</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Dati Perdita Cittadinanza</t>
@@ -484,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1634,708 +1709,984 @@
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -2284,7 +2284,7 @@
         <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>133</v>
@@ -2307,7 +2307,7 @@
         <v>142</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>133</v>
@@ -2316,7 +2316,7 @@
         <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>135</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_038.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -559,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1065,7 +1077,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>36</v>
@@ -1088,7 +1100,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>36</v>
@@ -1134,7 +1146,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>36</v>
@@ -1157,7 +1169,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>36</v>
@@ -1166,7 +1178,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>27</v>
@@ -1249,7 +1261,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
@@ -1258,7 +1270,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
@@ -1272,7 +1284,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
@@ -1295,7 +1307,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
@@ -1318,7 +1330,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>36</v>
@@ -1396,7 +1408,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -1465,7 +1477,7 @@
         <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>27</v>
@@ -1488,7 +1500,7 @@
         <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1511,7 +1523,7 @@
         <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>27</v>
@@ -1571,13 +1583,13 @@
         <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1591,16 +1603,16 @@
         <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1614,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>96</v>
@@ -1657,19 +1669,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1692,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1703,76 +1715,76 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
@@ -1781,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>114</v>
@@ -1790,12 +1802,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>115</v>
@@ -1804,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>116</v>
@@ -1813,12 +1825,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>117</v>
@@ -1827,113 +1839,113 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>125</v>
@@ -1942,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>126</v>
@@ -1951,12 +1963,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>127</v>
@@ -1965,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>128</v>
@@ -1974,426 +1986,426 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>146</v>
@@ -2402,21 +2414,21 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>147</v>
@@ -2425,44 +2437,44 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>149</v>
@@ -2471,21 +2483,21 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>150</v>
@@ -2494,21 +2506,21 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>151</v>
@@ -2517,176 +2529,268 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>27</v>
       </c>
     </row>
